--- a/biology/Botanique/Collaea/Collaea.xlsx
+++ b/biology/Botanique/Collaea/Collaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collaea est un genre d'arbustes de la famille des Fabacées, originaires d'Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Collaea sont des buissons, aux feuilles trifoliolées-pennées et aux fleurs semblables à celles du pois.
-Toutes les espèces du genre comptent 2n = 20 chromosomes[1].
+Toutes les espèces du genre comptent 2n = 20 chromosomes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Collaea sont toutes originaires d'Amérique du Sud : Argentine, Bolivie, Brésil, Paraguay et Pérou.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI et Tropicos à la date de juillet 2012. Les espèces maintenues dans le genre sont en caractères gras :
 Collaea angustifolia (Kunth) Benth. (1837) : voir Galactia jussiaeana var. angustifolia (Kunth) Burkart - synonyme : Galactia angustifolia Kunth
@@ -587,9 +605,9 @@
 Collaea crassifolia Benth. (1837) : voir Galactia crassifolia (Benth.) Taub.
 Collaea crassifolia var. angustifolia Benth. (1859) : voir Galactia neesii DC. - synonyme : Collaea neesii var. floribunda Benth.
 Collaea decumbens Benth. (1849) : voir Galactia decumbens (Benth.) Chodat &amp; Hassl.
-Collaea diversifolia Benth. (1859) : voir Galactia dimorpha Burkart - synonyme : Galactia diversifolia (Benth.) Hoehne[2]
+Collaea diversifolia Benth. (1859) : voir Galactia dimorpha Burkart - synonyme : Galactia diversifolia (Benth.) Hoehne
 Collaea formosa Griseb. (1874) : voir Collaea argentina Griseb.
-Collaea gibba Graham ex Wall. (1831) - spécimen a : voir Cajanus heynei (Wight &amp; Arn.) Maesen - synonymes : Atylosia kulnensis (Dalzell) Dalzell, Cajanus kulnensis Dalzell, Dunbaria heynei Wight &amp; Arn., Dunbaria oblonga Arn. - spécimens b et c : voir Rhynchosia courtallensis Maesen - synonyme : Dunbaria latifolia Wight &amp; Arn.[3]
+Collaea gibba Graham ex Wall. (1831) - spécimen a : voir Cajanus heynei (Wight &amp; Arn.) Maesen - synonymes : Atylosia kulnensis (Dalzell) Dalzell, Cajanus kulnensis Dalzell, Dunbaria heynei Wight &amp; Arn., Dunbaria oblonga Arn. - spécimens b et c : voir Rhynchosia courtallensis Maesen - synonyme : Dunbaria latifolia Wight &amp; Arn.
 Collaea glaucescens (Kunth) Benth. (1837) : voir Galactia glaucescens Kunth
 Collaea grewiifolia Benth. (1837) : voir Galactia grewiifolia (Benth.) Taub.
 Collaea guianensis Klotzsch ex Schomb. (1848)
@@ -597,7 +615,7 @@
 Collaea latisiliqua (Desv.) Benth. (1837) : voir Galactia latisiliqua Desv.
 Collaea laureola Bertero ex Colla (1835) : voir Ardisia coriacea Sw.
 Collaea longiflora (Arn.) Benth. (1837) - synonyme : Galactia longiflora Arn.
-Collaea longifolia Benth. (1859) : voir Galactia hoehnei Burkart - synonyme : Galactia longifolia (Benth.) Hoehne[4]
+Collaea longifolia Benth. (1859) : voir Galactia hoehnei Burkart - synonyme : Galactia longifolia (Benth.) Hoehne
 Collaea macrophylla Benth. (1837) : voir Galactia boavista (Vell.) Burkart - synonymes : Cytisus boavista Vell., Galactia macrophylla (Benth.) Taub.
 Collaea martii (DC.) Benth. (1837) : voir Galactia martii DC.
 Collaea mollis Graham ex Wall. (1831) : voir Cajanus mollis (Benth.) Maesen - synonymes : Atylosia mollis Benth., Cantharospermum molle (Benth.) Taub.
@@ -612,7 +630,7 @@
 Collaea pendula (Pers.) Benth. (1837) : voir Galactia pendula Pers.
 Collaea rigida Glaz. (1906) : voir Galactia stereophylla Harms
 Collaea rosea Benth. (1839) : voir Galactia jussiaeana Kunth
-Collaea rotundifolia Benth. (1859) : voir Galactia douradensis Taub. - synonyme : Galactia rotundifolia (Benth.) Malme[5]
+Collaea rotundifolia Benth. (1859) : voir Galactia douradensis Taub. - synonyme : Galactia rotundifolia (Benth.) Malme
 Collaea rugosa Benth. (1837) : voir Galactia rugosa (Benth.) S.Moore
 Collaea scarlatina Mart. ex Benth.(1837) : voir Camptosema scarlatinum (Mart. ex Benth.) Burkart - synonyme : Galactia scarlatina (Mart. ex Benth.) Taub.
 Collaea scarlatina var. calycina Benth. (1837) : voir Camptosema scarlatinum (Mart. ex Benth.) Burkart
@@ -654,15 +672,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1825, Augustin Pyrame de Candolle décrit ce genre sous le nom de Collaea, en hommage à Luigi Aloysius Colla[6].
-En 1859, George Bentham effectue un récapitulatif du genre qui atteint alors son extension maximale[7]
-En 1894, Paul Taubert fait du genre Collaea en entier une section du genre Galactia et le rend donc synonyme[8]. Il répartit les espèces en trois subdivisions : Platystylus, Collaearia et Galactiaria.
-En 1904, Robert Chodat et Émile Hassler ne suivent pas Taubert mais déplacent quelques espèces dans le genre Galactia[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1825, Augustin Pyrame de Candolle décrit ce genre sous le nom de Collaea, en hommage à Luigi Aloysius Colla.
+En 1859, George Bentham effectue un récapitulatif du genre qui atteint alors son extension maximale
+En 1894, Paul Taubert fait du genre Collaea en entier une section du genre Galactia et le rend donc synonyme. Il répartit les espèces en trois subdivisions : Platystylus, Collaearia et Galactiaria.
+En 1904, Robert Chodat et Émile Hassler ne suivent pas Taubert mais déplacent quelques espèces dans le genre Galactia.
 Arturo Erhardo Burkart, dans un premier temps, en 1942, confirme la position de Taubert, puis en 1952 et 1971, maintient une partie du genre Collaea (la section Collaearia) comme distincte du genre Galactia.
-En 1991, Graziela Maciel Barroso revient sur cette position de Burkart considérant les différences comme inconsistantes. Collaea est à nouveau un synonyme de Galactia[10]
-Mais en 2003, la distinction des deux genres est confirmée par les études phylogénétiques de Luciano Paganucci de Queiroz et al.[11].
+En 1991, Graziela Maciel Barroso revient sur cette position de Burkart considérant les différences comme inconsistantes. Collaea est à nouveau un synonyme de Galactia
+Mais en 2003, la distinction des deux genres est confirmée par les études phylogénétiques de Luciano Paganucci de Queiroz et al..
 Le genre Collaea fait partie de la sous-famille des Faboideae, de la tribu des Phaseoleae et de la sous-tribu des Diocleinae.
 </t>
         </is>
